--- a/산출물/최종제출/구현률.기여도.xlsx
+++ b/산출물/최종제출/구현률.기여도.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\10_Semi\project\산출물\최종제출\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0470EAC-8AEE-484B-AFF3-233978C6FA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="10320"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="116">
   <si>
     <t>- 고객센터 - 1:1문의</t>
   </si>
@@ -323,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data insert/ update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문서작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,16 +461,24 @@
   </si>
   <si>
     <t>기여도 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE / BE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -568,10 +589,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -590,9 +611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -610,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,6 +640,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -632,12 +653,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -666,7 +690,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -692,6 +715,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-CB4A-4071-B4D2-909BF4AC6309}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -707,6 +736,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CB4A-4071-B4D2-909BF4AC6309}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -722,6 +757,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-CB4A-4071-B4D2-909BF4AC6309}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -737,6 +778,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CB4A-4071-B4D2-909BF4AC6309}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -752,7 +799,20 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-CB4A-4071-B4D2-909BF4AC6309}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -760,6 +820,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -791,23 +854,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25531914893617019</c:v>
+                  <c:v>0.2391304347826087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19148936170212766</c:v>
+                  <c:v>0.19565217391304349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19148936170212766</c:v>
+                  <c:v>0.19565217391304349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21276595744680851</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14893617021276595</c:v>
+                  <c:v>0.15217391304347827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB4A-4071-B4D2-909BF4AC6309}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -850,7 +918,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -911,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,9 +1018,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,6 +1070,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1154,236 +1262,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="2"/>
     </row>
@@ -1420,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1880,7 @@
       </c>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +1916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +2094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +2202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2105,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" s="5">
         <v>16</v>
@@ -2124,7 +2232,7 @@
       </c>
       <c r="J60" s="5">
         <f>SUM(C60:I60)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>56</v>
@@ -2245,7 +2353,7 @@
       </c>
       <c r="D64" s="8">
         <f t="shared" si="1"/>
-        <v>14.391304347826088</v>
+        <v>14.347826086956522</v>
       </c>
       <c r="E64" s="8">
         <f t="shared" si="1"/>
@@ -2269,112 +2377,112 @@
       </c>
       <c r="J64" s="9">
         <f>AVERAGE(J41:J63)</f>
-        <v>83.869565217391298</v>
+        <v>83.826086956521735</v>
       </c>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="20"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="20"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="19"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="20"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="20"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="20"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="20"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="20"/>
+      <c r="A71" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2401,7 +2509,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>77</v>
@@ -2412,7 +2520,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>78</v>
@@ -2435,13 +2543,13 @@
       <c r="F80" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G80" s="18">
-        <f>COUNTIF($D$81:$D$127,F80)</f>
-        <v>12</v>
-      </c>
-      <c r="H80" s="19">
+      <c r="G80" s="17">
+        <f>COUNTIF($D$81:$D$126,F80)</f>
+        <v>11</v>
+      </c>
+      <c r="H80" s="18">
         <f xml:space="preserve"> $G80/SUM($G$80:$G$84)</f>
-        <v>0.25531914893617019</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="K80"/>
     </row>
@@ -2461,13 +2569,13 @@
       <c r="F81" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="18">
-        <f t="shared" ref="G81:G84" si="2">COUNTIF($D$81:$D$127,F81)</f>
+      <c r="G81" s="17">
+        <f>COUNTIF($D$81:$D$126,F81)</f>
         <v>9</v>
       </c>
-      <c r="H81" s="19">
-        <f t="shared" ref="H81:H84" si="3" xml:space="preserve"> $G81/SUM($G$80:$G$84)</f>
-        <v>0.19148936170212766</v>
+      <c r="H81" s="18">
+        <f t="shared" ref="H81:H84" si="2" xml:space="preserve"> $G81/SUM($G$80:$G$84)</f>
+        <v>0.19565217391304349</v>
       </c>
       <c r="K81"/>
     </row>
@@ -2487,13 +2595,13 @@
       <c r="F82" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="17">
+        <f>COUNTIF($D$81:$D$126,F82)</f>
+        <v>9</v>
+      </c>
+      <c r="H82" s="18">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H82" s="19">
-        <f t="shared" si="3"/>
-        <v>0.19148936170212766</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="K82"/>
     </row>
@@ -2513,13 +2621,13 @@
       <c r="F83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="17">
+        <f>COUNTIF($D$81:$D$126,F83)</f>
+        <v>10</v>
+      </c>
+      <c r="H83" s="18">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H83" s="19">
-        <f t="shared" si="3"/>
-        <v>0.21276595744680851</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="K83"/>
     </row>
@@ -2539,13 +2647,13 @@
       <c r="F84" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="17">
+        <f>COUNTIF($D$81:$D$126,F84)</f>
+        <v>7</v>
+      </c>
+      <c r="H84" s="18">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H84" s="19">
-        <f t="shared" si="3"/>
-        <v>0.14893617021276595</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="K84"/>
     </row>
@@ -2557,7 +2665,7 @@
         <v>34</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>65</v>
@@ -2566,16 +2674,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K86"/>
     </row>
@@ -2587,7 +2695,7 @@
         <v>36</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>68</v>
@@ -2596,13 +2704,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>68</v>
@@ -2611,16 +2719,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K89"/>
     </row>
@@ -2632,7 +2740,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>69</v>
@@ -2641,13 +2749,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>69</v>
@@ -2656,7 +2764,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>34</v>
@@ -2671,10 +2779,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>60</v>
@@ -2692,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>69</v>
@@ -2701,16 +2809,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K95"/>
     </row>
@@ -2722,25 +2830,25 @@
         <v>34</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K96"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K97"/>
     </row>
@@ -2752,25 +2860,25 @@
         <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K98"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K99"/>
     </row>
@@ -2782,21 +2890,21 @@
         <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>65</v>
@@ -2804,7 +2912,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>34</v>
@@ -2813,7 +2921,7 @@
         <v>60</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -2824,24 +2932,24 @@
         <v>34</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -2852,24 +2960,24 @@
         <v>34</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -2880,24 +2988,24 @@
         <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -2908,24 +3016,24 @@
         <v>36</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -2936,24 +3044,24 @@
         <v>36</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2964,21 +3072,21 @@
         <v>36</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>70</v>
@@ -2992,24 +3100,24 @@
         <v>34</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3020,24 +3128,24 @@
         <v>34</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3048,35 +3156,35 @@
         <v>34</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>67</v>
@@ -3084,13 +3192,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>67</v>
@@ -3098,13 +3206,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>67</v>
@@ -3112,21 +3220,21 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>34</v>
@@ -3135,34 +3243,20 @@
         <v>73</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D127" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3184,7 +3278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3197,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
